--- a/api_test/case/case2/Api_data2.xlsx
+++ b/api_test/case/case2/Api_data2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8555"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Api_data" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>pageNum</t>
+    <t>bizType</t>
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>！@#</t>
   </si>
 </sst>
 </file>
@@ -49,6 +52,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -56,15 +73,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -72,30 +81,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,13 +89,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,6 +125,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -163,7 +150,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,7 +174,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,25 +197,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,151 +311,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,16 +400,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -456,16 +459,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -493,145 +496,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -961,7 +964,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -986,6 +989,22 @@
         <v>200</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+    </row>
     <row r="6" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
